--- a/data/acc109/ages/data_81-95.xlsx.xlsx
+++ b/data/acc109/ages/data_81-95.xlsx.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="72">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -55,6 +55,12 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Vertices</t>
+  </si>
+  <si>
+    <t>Edges</t>
+  </si>
+  <si>
     <t>Diameter</t>
   </si>
   <si>
@@ -65,9 +71,6 @@
   </si>
   <si>
     <t>Average path length</t>
-  </si>
-  <si>
-    <t>Girth</t>
   </si>
   <si>
     <t>Reciprocity</t>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -650,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -661,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01721198018014403</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -672,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4.036756267224621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -683,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0.01721198018014403</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -694,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04836829836829837</v>
+        <v>4.036756267224621</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -705,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4.85759493670886</v>
+        <v>0.04836829836829837</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -716,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.05676072418854999</v>
+        <v>4.85759493670886</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -727,6 +730,17 @@
         <v>10</v>
       </c>
       <c r="C10">
+        <v>0.05676072418854999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>75.32867132867133</v>
       </c>
     </row>
@@ -745,43 +759,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -799,43 +813,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -853,43 +867,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -907,43 +921,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -961,43 +975,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1015,43 +1029,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1069,43 +1083,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1123,43 +1137,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1182,25 +1196,25 @@
         <v>0.006641008648612591</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1223,25 +1237,25 @@
         <v>0.006882241868754501</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1259,43 +1273,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1318,25 +1332,25 @@
         <v>0.008448249919242137</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1359,25 +1373,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1400,25 +1414,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1436,43 +1450,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1495,25 +1509,25 @@
         <v>0.008293487451344667</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1536,25 +1550,25 @@
         <v>0.006953142542526774</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1577,25 +1591,25 @@
         <v>0.01228120984120899</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1613,43 +1627,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1667,43 +1681,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1726,25 +1740,25 @@
         <v>0.003204631661352645</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1767,22 +1781,22 @@
         <v>0.002369531943634609</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1805,25 +1819,25 @@
         <v>0.00330355703498456</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1846,25 +1860,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1882,43 +1896,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1941,25 +1955,25 @@
         <v>0.009895616762172389</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1982,25 +1996,25 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2018,43 +2032,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2077,25 +2091,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2118,25 +2132,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2159,25 +2173,25 @@
         <v>0.004171009504984827</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2195,43 +2209,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2254,25 +2268,25 @@
         <v>0.003934787604850334</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2295,25 +2309,25 @@
         <v>0.003934787604850334</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2336,25 +2350,25 @@
         <v>0.007279357068973118</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2372,43 +2386,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2431,25 +2445,25 @@
         <v>0.005665490633274957</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2472,25 +2486,25 @@
         <v>0.004842299686559793</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2508,43 +2522,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2567,25 +2581,25 @@
         <v>0.004206461760735806</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2608,25 +2622,25 @@
         <v>0.007781954257361241</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2649,25 +2663,25 @@
         <v>0.009435619537050504</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2685,43 +2699,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2744,25 +2758,25 @@
         <v>0.003903256166071471</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2785,25 +2799,25 @@
         <v>0.005311327355954018</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2826,25 +2840,25 @@
         <v>0.00715106838766047</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2862,43 +2876,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2921,25 +2935,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2962,25 +2976,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3003,25 +3017,25 @@
         <v>0.00527998296874027</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3039,43 +3053,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3098,25 +3112,25 @@
         <v>0.01069000790647178</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3139,25 +3153,25 @@
         <v>0.005892861245341402</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3175,43 +3189,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3234,25 +3248,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3275,25 +3289,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3311,43 +3325,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3365,43 +3379,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3424,25 +3438,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3460,43 +3474,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3519,25 +3533,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3555,43 +3569,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3614,25 +3628,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3655,25 +3669,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3691,43 +3705,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3750,25 +3764,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3791,25 +3805,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3832,25 +3846,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3868,99 +3882,99 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>5.5</v>
@@ -3980,7 +3994,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2.333333333333333</v>
@@ -4000,7 +4014,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>6.333333333333333</v>
@@ -4020,7 +4034,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -4040,7 +4054,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>6.5</v>
@@ -4060,7 +4074,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -4080,7 +4094,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2.333333333333333</v>
@@ -4100,7 +4114,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4120,7 +4134,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -4140,7 +4154,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>1.666666666666667</v>
@@ -4160,7 +4174,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -4180,7 +4194,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2.5</v>
@@ -4200,7 +4214,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.5</v>
@@ -4220,7 +4234,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4240,7 +4254,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4260,7 +4274,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -4280,7 +4294,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>8.333333333333334</v>
@@ -4313,43 +4327,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4367,43 +4381,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4421,43 +4435,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4475,43 +4489,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4529,43 +4543,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4583,43 +4597,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
